--- a/Bin/resource/excel/Scene.xlsx
+++ b/Bin/resource/excel/Scene.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ARK\Bin\Server\resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\ARK.net_header\Bin\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8EAC1F64-1C58-4302-89EA-6FBC479BF04E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="DataNode" sheetId="1" r:id="rId1"/>
@@ -20,8 +19,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -231,7 +230,7 @@
   </si>
   <si>
     <t>../resource/res/Scene/1.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -251,7 +250,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>res</t>
@@ -265,7 +263,7 @@
       </rPr>
       <t>/Scene/2.xml</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -285,7 +283,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>res</t>
@@ -297,9 +294,42 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>/Scene/3.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../resource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>/Scene/4.xml</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -319,7 +349,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>res</t>
@@ -331,9 +360,9 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>/Scene/3.xml</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>/Scene/5.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -353,7 +382,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>res</t>
@@ -365,58 +393,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>/Scene/5.xml</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>../resource</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>res</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>/Scene/6.xml</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -427,156 +414,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -585,50 +437,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,74 +447,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -724,7 +466,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1044,421 +786,416 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="30.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="11" width="27.21875" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="11" width="27.25" customWidth="1"/>
+    <col min="12" max="12" width="9.375" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="15" width="13.21875" customWidth="1"/>
+    <col min="14" max="15" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8" t="b">
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8" t="b">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8" t="b">
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8" t="b">
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="b">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11" t="s">
+      <c r="P8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
@@ -1473,16 +1210,16 @@
       <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9">
         <v>500</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" t="s">
         <v>38</v>
       </c>
       <c r="J9">
@@ -1494,27 +1231,27 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" t="s">
         <v>41</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>43</v>
       </c>
       <c r="D10">
@@ -1523,16 +1260,16 @@
       <c r="E10">
         <v>200</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" t="s">
         <v>44</v>
       </c>
       <c r="H10">
         <v>500</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" t="s">
         <v>38</v>
       </c>
       <c r="J10">
@@ -1544,21 +1281,21 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" t="s">
         <v>41</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="s">
@@ -1573,16 +1310,16 @@
       <c r="E11">
         <v>200</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
         <v>47</v>
       </c>
       <c r="H11">
         <v>500</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" t="s">
         <v>38</v>
       </c>
       <c r="J11">
@@ -1594,21 +1331,21 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" t="s">
         <v>49</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
       <c r="B12" t="s">
@@ -1623,16 +1360,16 @@
       <c r="E12">
         <v>200</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
         <v>47</v>
       </c>
       <c r="H12">
         <v>500</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" t="s">
         <v>38</v>
       </c>
       <c r="J12">
@@ -1644,21 +1381,21 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
@@ -1673,16 +1410,16 @@
       <c r="E13">
         <v>200</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" t="s">
         <v>54</v>
       </c>
       <c r="H13">
         <v>500</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" t="s">
         <v>38</v>
       </c>
       <c r="J13">
@@ -1694,21 +1431,21 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" t="s">
         <v>57</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>58</v>
       </c>
       <c r="B14" t="s">
@@ -1723,16 +1460,16 @@
       <c r="E14">
         <v>200</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" t="s">
         <v>60</v>
       </c>
       <c r="H14">
         <v>500</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" t="s">
         <v>38</v>
       </c>
       <c r="J14">
@@ -1744,13 +1481,13 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" t="s">
         <v>41</v>
       </c>
       <c r="P14">
@@ -1758,13 +1495,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:P7" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-  </dataValidations>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/Bin/resource/excel/Scene.xlsx
+++ b/Bin/resource/excel/Scene.xlsx
@@ -229,12 +229,22 @@
     <t>34.10933,1.165174,11.49214</t>
   </si>
   <si>
-    <t>../resource/res/Scene/1.xml</t>
+    <t>../resource/res/map/1.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>../resource</t>
+      <t>../resource/res/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>map</t>
     </r>
     <r>
       <rPr>
@@ -243,7 +253,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>/</t>
+      <t>/2.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../resource/res/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>map</t>
     </r>
     <r>
       <rPr>
@@ -252,7 +278,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>res</t>
+      <t>/3.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../resource/res/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>map</t>
     </r>
     <r>
       <rPr>
@@ -261,13 +303,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>/Scene/2.xml</t>
+      <t>/4.xml</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>../resource</t>
+      <t>../resource/res/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>map</t>
     </r>
     <r>
       <rPr>
@@ -276,7 +328,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>/</t>
+      <t>/5.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../resource/res/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>map</t>
     </r>
     <r>
       <rPr>
@@ -285,115 +353,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>res</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/Scene/3.xml</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>../resource</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>res</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/Scene/4.xml</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>../resource</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>res</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/Scene/5.xml</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>../resource</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>res</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/Scene/6.xml</t>
+      <t>/6.xml</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -412,6 +372,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -437,8 +404,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,7 +760,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1260,7 +1230,7 @@
       <c r="E10">
         <v>200</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G10" t="s">
@@ -1310,7 +1280,7 @@
       <c r="E11">
         <v>200</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G11" t="s">
@@ -1360,7 +1330,7 @@
       <c r="E12">
         <v>200</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G12" t="s">
@@ -1410,7 +1380,7 @@
       <c r="E13">
         <v>200</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G13" t="s">
@@ -1460,7 +1430,7 @@
       <c r="E14">
         <v>200</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G14" t="s">
